--- a/Mifos Automation Excels/Client/2667-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-INST-FEE-FLAT-AccCL1stFEB-WAIVECHARGE-ON-2stINST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2667-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-INST-FEE-FLAT-AccCL1stFEB-WAIVECHARGE-ON-2stINST-Newcreateloan1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Head Office</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>selectinstallmenttowaivecharge</t>
-  </si>
-  <si>
-    <t>verifyrepayment</t>
-  </si>
-  <si>
-    <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
   </si>
 </sst>
 </file>
@@ -856,7 +850,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -890,14 +884,6 @@
       </c>
       <c r="B3" s="9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
